--- a/doc/Ant_BOM.xlsx
+++ b/doc/Ant_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soeren\Documents\GitHub\AR2ISS\AR2ISS_AntCTL_HW\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72008DD-A1C1-4126-924B-4F38ECC0B787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDBD6E3-62E2-4F9B-ADF1-3CA934478A4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{931C32E2-D07B-4331-8F0D-D9E491F7410C}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{931C32E2-D07B-4331-8F0D-D9E491F7410C}"/>
   </bookViews>
   <sheets>
     <sheet name="AR2ISS_AntCTL_HW" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="170">
   <si>
     <t xml:space="preserve"> Quantity</t>
   </si>
@@ -551,7 +551,10 @@
     <t>BLM18KG102SN1D</t>
   </si>
   <si>
-    <t>C668205</t>
+    <t>C358757</t>
+  </si>
+  <si>
+    <t>C8963</t>
   </si>
 </sst>
 </file>
@@ -948,12 +951,12 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
     <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.7265625" bestFit="1" customWidth="1"/>
@@ -1198,7 +1201,9 @@
       <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -1691,7 +1696,7 @@
         <v>110</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">

--- a/doc/Ant_BOM.xlsx
+++ b/doc/Ant_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soeren\Documents\GitHub\AR2ISS\AR2ISS_AntCTL_HW\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDBD6E3-62E2-4F9B-ADF1-3CA934478A4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACAB4B8-2C0C-4BA4-AA31-F8AC8E0C2161}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{931C32E2-D07B-4331-8F0D-D9E491F7410C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{931C32E2-D07B-4331-8F0D-D9E491F7410C}"/>
   </bookViews>
   <sheets>
     <sheet name="AR2ISS_AntCTL_HW" sheetId="2" r:id="rId1"/>
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF999C4-923F-4F66-BE50-B13CBABA14F2}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
